--- a/Documentación/Psp's/Salma/Clase Usuario/Tiempo en fase.xlsx
+++ b/Documentación/Psp's/Salma/Clase Usuario/Tiempo en fase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yosse\Documents\TSP\PSP\Clase Usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yosse\Downloads\Clase_Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1A277B-7D30-47E3-BE67-1709265A5E82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A50608-A5BF-49A7-924D-2EFB0D145712}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="excel(3)" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Yosse\Downloads\excel(3).iqy" name="excel(3)" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2470/reports/form2html.class?uri=%2FProyectoConsultas%2BSIGERA%2FPSP2%2E1%2BClaseUsuario%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\Yosse\Downloads\Clase_Usuario\excel(3).iqy" name="excel(3)" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2469/reports/form2html.class?uri=%2FProyectoConsultas%2BSIGERA%2FPSP2%2E1%2BClaseUsuario%2F%2Fcms%2Fpsp2%2E1%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -93,7 +93,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 05:29 PM el 20/11/2018</t>
+    <t>Reporte generado a las 09:08 PM el 4/12/2018</t>
   </si>
 </sst>
 </file>
@@ -665,10 +665,10 @@
     <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1102,16 +1102,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="C9" s="9">
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="D9" s="9">
-        <v>4.1666666666666666E-3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="10">
-        <v>0.17100000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,16 +1119,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8">
-        <v>1.6666666666666666E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C10" s="9">
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="D10" s="9">
-        <v>9.7222222222222224E-3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,16 +1136,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8">
-        <v>4.8611111111111112E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C11" s="9">
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="D11" s="9">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.114</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,16 +1153,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8">
-        <v>6.2499999999999995E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="C12" s="9">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D12" s="9">
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
-        <v>0.14299999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,16 +1170,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="8">
-        <v>2.0833333333333333E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C13" s="9">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D13" s="9">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5.7099999999999998E-2</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1193,10 +1193,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D14" s="9">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2.86E-2</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,16 +1204,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="8">
-        <v>1.3888888888888889E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C15" s="9">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D15" s="9">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2.86E-2</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.125</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1227,10 +1227,10 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D16" s="9">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="10">
-        <v>5.7099999999999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="D17" s="9">
-        <v>2.4305555555555556E-2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7"/>
     </row>
